--- a/TestData/DSNAP.xlsx
+++ b/TestData/DSNAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkalamshabaz\PycharmProjects\DSNAP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02F67E3-BBEA-487F-B9B0-3E8FA371AD1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC24EC-955F-4DC2-9225-006BFEC4A34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A6A2D8A-2C7C-4F49-8162-28AAF131ECAB}"/>
   </bookViews>
@@ -44,13 +44,13 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>Habies</t>
-  </si>
-  <si>
-    <t>Dormon</t>
-  </si>
-  <si>
     <t>01/01/1990</t>
+  </si>
+  <si>
+    <t>Carbone</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,13 +429,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DSNAP.xlsx
+++ b/TestData/DSNAP.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkalamshabaz\PycharmProjects\DSNAP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC24EC-955F-4DC2-9225-006BFEC4A34C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7024231-C921-4EBE-8E36-57644823003F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A6A2D8A-2C7C-4F49-8162-28AAF131ECAB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7A6A2D8A-2C7C-4F49-8162-28AAF131ECAB}"/>
   </bookViews>
   <sheets>
     <sheet name="HOH details" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>First name</t>
   </si>
@@ -51,6 +52,24 @@
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Mardy</t>
+  </si>
+  <si>
+    <t>Famon</t>
+  </si>
+  <si>
+    <t>Rolen</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>02/02/2003</t>
   </si>
 </sst>
 </file>
@@ -403,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC337041-1C5C-41BF-8182-E050C811C4CB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,6 +457,70 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73CD332-7EAE-4C39-B153-6CEDCBC6D1F8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/DSNAP.xlsx
+++ b/TestData/DSNAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkalamshabaz\PycharmProjects\DSNAP\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7024231-C921-4EBE-8E36-57644823003F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E56F7-0CFE-44D2-9B73-DF90CA3DCDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7A6A2D8A-2C7C-4F49-8162-28AAF131ECAB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>First name</t>
   </si>
@@ -60,16 +60,19 @@
     <t>Mardy</t>
   </si>
   <si>
-    <t>Famon</t>
-  </si>
-  <si>
-    <t>Rolen</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
     <t>02/02/2003</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Doman</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Orton</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +481,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,10 +504,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -512,13 +515,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
